--- a/biology/Botanique/Imperator_rhodopurpureus/Imperator_rhodopurpureus.xlsx
+++ b/biology/Botanique/Imperator_rhodopurpureus/Imperator_rhodopurpureus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet vieux rose
 Imperator rhodopurpureus, le Bolet vieux rose, anciennement Boletus rhodopurpureus, est une espèce toxique de champignons (Fungi) basidiomycètes du genre Imperator dans la famille des Boletaceae. Il est caractérisé par son chapeau vieux rose de texture grumeleuse et cabossée rappelant une "peau de crapaud", ses pores rougeâtres restant longtemps jaunes vers la marge et son bleuissement intense à la coupe ou à la pression.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Imperator rhodopurpureus (Smotl.) Assyov, Bellanger, Bertéa, Courtec., Koller, Loizides, G.Marques, J.A.Muñoz, Oppicelli, D.Puddu, F.Rich. &amp; P.-A.Moreau[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus rhodopurpureus Smotl.[1].
-Synonymes
-Imperator rhodopurpureus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Imperator rhodopurpureus (Smotl.) Assyov, Bellanger, Bertéa, Courtec., Koller, Loizides, G.Marques, J.A.Muñoz, Oppicelli, D.Puddu, F.Rich. &amp; P.-A.Moreau. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus rhodopurpureus Smotl..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Imperator_rhodopurpureus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperator_rhodopurpureus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imperator rhodopurpureus a pour synonymes :
 Boletus rhodopurpureus f. mediterraneensis
 Boletus rhodopurpureus f. polypurpureus Smotl.
 Boletus rhodopurpureus f. poridecolorans Klofac
@@ -530,47 +579,154 @@
 Suillellus rhodopurpureus f. poridecolorans (Klofac) Blanco-Dios
 Suillellus rhodopurpureus f. xanthopurpureus (Smotl.) Blanco-Dios
 Suillellus rhodopurpureus (Smotl.) Blanco-Dios
-Étymologie
-L'épithète spécifique rhodopurpureus = rouge + pourpre.
-Noms vulgaires et vernaculaires
-Bolet vieux rose[2], Bolet rose pourpre[3], Bolet rouge pourpre[2].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Imperator_rhodopurpureus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Imperator_rhodopurpureus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique rhodopurpureus = rouge + pourpre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Imperator_rhodopurpureus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperator_rhodopurpureus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolet vieux rose, Bolet rose pourpre, Bolet rouge pourpre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Imperator_rhodopurpureus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperator_rhodopurpureus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques morphologiques de Imperator rhodopurpureus sont les suivantes :
 Son chapeau mesure de 5 à 20 cm. Il est cabossé grumeleux (rappelant une texture de "peau de crapaud"), vieux rose, terni de rougeâtre brunâtre ou crème avec l’âge.  
 Ses pores sont jaunes puis orangé rouge, restant longtemps jaunes vers la marge, bleuissants au toucher. 
 Son stipe mesure 5 à 15 x 1,5 à 5 cm. Il est jaune à base plus rouge, couvert d'un réseau rouge plutôt fin. 
-Sa chair est jaune, pourpre dans la base du pied, vivement bleuissante à la coupe. Sa sporée est brun olive[4],[5]. 
-Caractéristiques microscopiques
-Ses spores sont elliptiques, lisses, guttulées, jaune verdâtre, 10,5-15 x 4,5-6 µm. . Basides clavées, tétrasporiques, non bouclées. Cheilocystides fusiformes, 40-60 x 10-14 µm. Pas de pleurocystides. Cuticule trichodermique faite d'hyphes non bouclées, larges de 4-6 µm, pigmentées de brun[2].
+Sa chair est jaune, pourpre dans la base du pied, vivement bleuissante à la coupe. Sa sporée est brun olive,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Imperator_rhodopurpureus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imperator_rhodopurpureus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores sont elliptiques, lisses, guttulées, jaune verdâtre, 10,5-15 x 4,5-6 µm. . Basides clavées, tétrasporiques, non bouclées. Cheilocystides fusiformes, 40-60 x 10-14 µm. Pas de pleurocystides. Cuticule trichodermique faite d'hyphes non bouclées, larges de 4-6 µm, pigmentées de brun.
 </t>
         </is>
       </c>
